--- a/src/main/java/Log/users.xlsx
+++ b/src/main/java/Log/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,36 @@
     <t>Channels</t>
   </si>
   <si>
+    <t>"U0580ST4F7T"</t>
+  </si>
+  <si>
+    <t>"sidekick"</t>
+  </si>
+  <si>
+    <t>"Sidekick"</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>"2023-05-13T18:33:45.000Z"</t>
+  </si>
+  <si>
+    <t>["Bot"]</t>
+  </si>
+  <si>
+    <t>"U0581PDJE1F"</t>
+  </si>
+  <si>
+    <t>"bot_test"</t>
+  </si>
+  <si>
+    <t>"2023-05-25T16:37:07.000Z"</t>
+  </si>
+  <si>
     <t>"U057FBSSW5U"</t>
   </si>
   <si>
@@ -50,18 +80,9 @@
     <t>"Slack Developer Tools"</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>"2023-05-13T15:02:17.000Z"</t>
   </si>
   <si>
-    <t>["Bot"]</t>
-  </si>
-  <si>
     <t>"U057MS99N9Y"</t>
   </si>
   <si>
@@ -80,13 +101,46 @@
     <t>"Bot"</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>"2023-05-25T16:45:00.000Z"</t>
   </si>
   <si>
-    <t>["recJq7v9FJEzqDkwE","recksWYnlC6rYuNRy","recZ2MDfbvqLnwRz3","receaGMi9Qx45x8nC","rec4zjzRC9FfNHGOl"]</t>
+    <t>["recW420dTGESqaiyn","recRs2sr7eMEQ1bRc","recCngivZ1m0jC4oQ","recZCJo8O4ailVWJ2","rec3LP79cubg7qxPv","rec0iofYKclUgagMF"]</t>
+  </si>
+  <si>
+    <t>"U058B02DEJU"</t>
+  </si>
+  <si>
+    <t>"lythatda2003"</t>
+  </si>
+  <si>
+    <t>"Phong Lan"</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>"2023-05-13T04:47:43.000Z"</t>
+  </si>
+  <si>
+    <t>["Owner","Primary Owner","Admin"]</t>
+  </si>
+  <si>
+    <t>["recgmXtDKRUp4gSx3","recO1igf62oqj45vd","recW420dTGESqaiyn","recZCJo8O4ailVWJ2","recycB3IInhJ1Zrbg","rectxP8gw0SbQhErT","rec0iofYKclUgagMF"]</t>
+  </si>
+  <si>
+    <t>"USLACKBOT"</t>
+  </si>
+  <si>
+    <t>"slackbot"</t>
+  </si>
+  <si>
+    <t>"Slackbot"</t>
+  </si>
+  <si>
+    <t>"1970-01-01T00:00:00.000Z"</t>
   </si>
   <si>
     <t>"U057KL28YGN"</t>
@@ -98,61 +152,22 @@
     <t>"2023-05-25T16:36:35.000Z"</t>
   </si>
   <si>
-    <t>"U0580ST4F7T"</t>
-  </si>
-  <si>
-    <t>"sidekick"</t>
-  </si>
-  <si>
-    <t>"Sidekick"</t>
-  </si>
-  <si>
-    <t>"2023-05-13T18:33:45.000Z"</t>
-  </si>
-  <si>
-    <t>"USLACKBOT"</t>
-  </si>
-  <si>
-    <t>"slackbot"</t>
-  </si>
-  <si>
-    <t>"Slackbot"</t>
-  </si>
-  <si>
-    <t>"1970-01-01T00:00:00.000Z"</t>
-  </si>
-  <si>
-    <t>"U0581PDJE1F"</t>
-  </si>
-  <si>
-    <t>"bot_test"</t>
-  </si>
-  <si>
-    <t>"2023-05-25T16:37:07.000Z"</t>
-  </si>
-  <si>
-    <t>"U058B02DEJU"</t>
-  </si>
-  <si>
-    <t>"lythatda2003"</t>
-  </si>
-  <si>
-    <t>"Phong Lan"</t>
-  </si>
-  <si>
-    <t>"lythatda2003@gmail.com"</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>"2023-05-13T04:47:43.000Z"</t>
-  </si>
-  <si>
-    <t>["Owner","Primary Owner","Admin"]</t>
-  </si>
-  <si>
-    <t>["reclv5uKUJ5xmfy0l","recIBlmuqtUu067La","recalAsCuVWyupzBy","rec69lkH9lQGSlutB","recksWYnlC6rYuNRy","rec4zjzRC9FfNHGOl"]</t>
+    <t>"U05C02YUCS0"</t>
+  </si>
+  <si>
+    <t>"ninh.nguyn1602"</t>
+  </si>
+  <si>
+    <t>"Ninh Nguy?n"</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>"2023-06-10T15:37:16.000Z"</t>
+  </si>
+  <si>
+    <t>["recgmXtDKRUp4gSx3"]</t>
   </si>
 </sst>
 </file>
@@ -197,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,27 +305,25 @@
       </c>
       <c r="D4" s="0"/>
       <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="H4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>24</v>
-      </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
@@ -319,7 +332,7 @@
       </c>
       <c r="F5" s="0"/>
       <c r="G5" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>15</v>
@@ -328,28 +341,30 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -363,65 +378,88 @@
       </c>
       <c r="D7" s="0"/>
       <c r="E7" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C8" s="0"/>
+        <v>40</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>41</v>
+      </c>
       <c r="D8" s="0"/>
       <c r="E8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G8" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>15</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
       <c r="E9" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F9" s="0"/>
       <c r="G9" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>46</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" t="s" s="0">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
